--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,23 +36,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单元格尺寸(作为性能优化使用，必填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -664,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -680,896 +664,879 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
       <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="1">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="1">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1">
         <v>6</v>
-      </c>
-      <c r="H16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D55" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D56" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="1">
-        <v>10</v>
-      </c>
-      <c r="E57" s="1">
-        <v>11</v>
-      </c>
-      <c r="F57" s="1">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="D59" s="1">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="1">
-        <v>12</v>
-      </c>
-      <c r="E60" s="1">
-        <v>23</v>
-      </c>
-      <c r="F60" s="1">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44</v>
+      </c>
+      <c r="E62" s="1">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="1">
-        <v>44</v>
-      </c>
-      <c r="E63" s="1">
-        <v>11</v>
-      </c>
-      <c r="F63" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>21</v>
+      <c r="F63" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
